--- a/teaching/traditional_assets/database/data/guernsey/guernsey_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/guernsey/guernsey_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,112 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0916</v>
+        <v>0.1926</v>
+      </c>
+      <c r="E2">
+        <v>0.197</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.7924035952449986</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.7924035952449986</v>
       </c>
       <c r="I2">
-        <v>0.00505673921387922</v>
+        <v>0.6648303856190201</v>
       </c>
       <c r="J2">
-        <v>0.00505673921387922</v>
+        <v>0.5862498464436664</v>
       </c>
       <c r="K2">
-        <v>-25.5</v>
+        <v>130.3</v>
       </c>
       <c r="L2">
-        <v>-1.783216783216783</v>
+        <v>0.3777906639605683</v>
       </c>
       <c r="M2">
-        <v>0.427</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="N2">
-        <v>0.02308108108108108</v>
+        <v>0.004252144722118612</v>
       </c>
       <c r="O2">
-        <v>-0.01674509803921569</v>
+        <v>0.06999232540291635</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.004252144722118612</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0.06999232540291635</v>
       </c>
       <c r="S2">
-        <v>0.427</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>6.43</v>
+        <v>268.5</v>
       </c>
       <c r="V2">
-        <v>0.3475675675675676</v>
+        <v>0.1251864975755315</v>
       </c>
       <c r="W2">
-        <v>-0.3014184397163121</v>
+        <v>-0.06882966323535625</v>
       </c>
       <c r="X2">
-        <v>0.07405846479451315</v>
+        <v>0.03503172946340932</v>
       </c>
       <c r="Y2">
-        <v>-0.3754769045108253</v>
+        <v>-0.1038613926987656</v>
       </c>
       <c r="Z2">
-        <v>0.114154847309068</v>
+        <v>0.176956189362106</v>
       </c>
       <c r="AA2">
-        <v>0.000577251292842159</v>
+        <v>0.04737166389179184</v>
       </c>
       <c r="AB2">
-        <v>0.0626381730489234</v>
+        <v>0.02771141566137619</v>
       </c>
       <c r="AC2">
-        <v>-0.06206092175608124</v>
+        <v>0.01966024823041565</v>
       </c>
       <c r="AD2">
-        <v>80.59999999999999</v>
+        <v>723.9</v>
       </c>
       <c r="AE2">
-        <v>1.058443146207636</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>81.65844314620763</v>
+        <v>723.9</v>
       </c>
       <c r="AG2">
-        <v>75.22844314620764</v>
+        <v>455.4</v>
       </c>
       <c r="AH2">
-        <v>0.815292656126909</v>
+        <v>0.2523442674382124</v>
       </c>
       <c r="AI2">
-        <v>0.5936272705515778</v>
+        <v>0.2911204053727982</v>
       </c>
       <c r="AJ2">
-        <v>0.802621281448773</v>
+        <v>0.1751403738173986</v>
       </c>
       <c r="AK2">
-        <v>0.5737004218247924</v>
+        <v>0.2053108516297732</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>39.7</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>39.7</v>
       </c>
       <c r="AN2">
-        <v>283.8028169014084</v>
+        <v>3.018765638031693</v>
+      </c>
+      <c r="AO2">
+        <v>5.775818639798489</v>
       </c>
       <c r="AP2">
-        <v>264.8888843176326</v>
+        <v>1.899082568807339</v>
+      </c>
+      <c r="AQ2">
+        <v>5.775818639798489</v>
       </c>
     </row>
     <row r="3">
@@ -707,121 +716,246 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Burford Capital Limited (AIM:BUR)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>0.31</v>
+      </c>
+      <c r="E3">
+        <v>0.197</v>
+      </c>
+      <c r="G3">
+        <v>0.8251811594202899</v>
+      </c>
+      <c r="H3">
+        <v>0.8251811594202899</v>
+      </c>
+      <c r="I3">
+        <v>0.6923309178743962</v>
+      </c>
+      <c r="J3">
+        <v>0.528668913275486</v>
+      </c>
+      <c r="K3">
+        <v>143.1</v>
+      </c>
+      <c r="L3">
+        <v>0.4320652173913043</v>
+      </c>
+      <c r="M3">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.004288939051918735</v>
+      </c>
+      <c r="O3">
+        <v>0.06373165618448637</v>
+      </c>
+      <c r="P3">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>0.004288939051918735</v>
+      </c>
+      <c r="R3">
+        <v>0.06373165618448637</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>260.3</v>
+      </c>
+      <c r="V3">
+        <v>0.1224134687735139</v>
+      </c>
+      <c r="W3">
+        <v>0.09132099553286535</v>
+      </c>
+      <c r="X3">
+        <v>0.01939841129333628</v>
+      </c>
+      <c r="Y3">
+        <v>0.07192258423952907</v>
+      </c>
+      <c r="Z3">
+        <v>0.1792110816514258</v>
+      </c>
+      <c r="AA3">
+        <v>0.09474332778358369</v>
+      </c>
+      <c r="AB3">
+        <v>0.02496379999427911</v>
+      </c>
+      <c r="AC3">
+        <v>0.06977952778930457</v>
+      </c>
+      <c r="AD3">
+        <v>644.1</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>644.1</v>
+      </c>
+      <c r="AG3">
+        <v>383.8</v>
+      </c>
+      <c r="AH3">
+        <v>0.2324851109907959</v>
+      </c>
+      <c r="AI3">
+        <v>0.2723582392490169</v>
+      </c>
+      <c r="AJ3">
+        <v>0.1528961835710302</v>
+      </c>
+      <c r="AK3">
+        <v>0.1823624441699135</v>
+      </c>
+      <c r="AL3">
+        <v>39.7</v>
+      </c>
+      <c r="AM3">
+        <v>39.7</v>
+      </c>
+      <c r="AN3">
+        <v>2.685988323603003</v>
+      </c>
+      <c r="AO3">
+        <v>5.775818639798489</v>
+      </c>
+      <c r="AP3">
+        <v>1.600500417014179</v>
+      </c>
+      <c r="AQ3">
+        <v>5.775818639798489</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Guernsey</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>GLI Finance Limited (AIM:GLIF)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.0916</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.00505673921387922</v>
-      </c>
-      <c r="J3">
-        <v>0.00505673921387922</v>
-      </c>
-      <c r="K3">
-        <v>-25.5</v>
-      </c>
-      <c r="L3">
-        <v>-1.783216783216783</v>
-      </c>
-      <c r="M3">
-        <v>0.427</v>
-      </c>
-      <c r="N3">
-        <v>0.02308108108108108</v>
-      </c>
-      <c r="O3">
-        <v>-0.01674509803921569</v>
-      </c>
-      <c r="P3">
+      <c r="D4">
+        <v>0.07519999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>-12.8</v>
+      </c>
+      <c r="L4">
+        <v>-0.9343065693430658</v>
+      </c>
+      <c r="M4">
         <v>-0</v>
       </c>
-      <c r="Q3">
+      <c r="N4">
         <v>-0</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0.427</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>6.43</v>
-      </c>
-      <c r="V3">
-        <v>0.3475675675675676</v>
-      </c>
-      <c r="W3">
-        <v>-0.3014184397163121</v>
-      </c>
-      <c r="X3">
-        <v>0.07405846479451315</v>
-      </c>
-      <c r="Y3">
-        <v>-0.3754769045108253</v>
-      </c>
-      <c r="Z3">
-        <v>0.114154847309068</v>
-      </c>
-      <c r="AA3">
-        <v>0.000577251292842159</v>
-      </c>
-      <c r="AB3">
-        <v>0.0626381730489234</v>
-      </c>
-      <c r="AC3">
-        <v>-0.06206092175608124</v>
-      </c>
-      <c r="AD3">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="AE3">
-        <v>1.058443146207636</v>
-      </c>
-      <c r="AF3">
-        <v>81.65844314620763</v>
-      </c>
-      <c r="AG3">
-        <v>75.22844314620764</v>
-      </c>
-      <c r="AH3">
-        <v>0.815292656126909</v>
-      </c>
-      <c r="AI3">
-        <v>0.5936272705515778</v>
-      </c>
-      <c r="AJ3">
-        <v>0.802621281448773</v>
-      </c>
-      <c r="AK3">
-        <v>0.5737004218247924</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>283.8028169014084</v>
-      </c>
-      <c r="AP3">
-        <v>264.8888843176326</v>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="V4">
+        <v>0.4456521739130435</v>
+      </c>
+      <c r="W4">
+        <v>-0.2289803220035778</v>
+      </c>
+      <c r="X4">
+        <v>0.05066504763348235</v>
+      </c>
+      <c r="Y4">
+        <v>-0.2796453696370602</v>
+      </c>
+      <c r="Z4">
+        <v>0.1356838664949985</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.03045903132847327</v>
+      </c>
+      <c r="AC4">
+        <v>-0.03045903132847327</v>
+      </c>
+      <c r="AD4">
+        <v>79.8</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>79.8</v>
+      </c>
+      <c r="AG4">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="AH4">
+        <v>0.8126272912423625</v>
+      </c>
+      <c r="AI4">
+        <v>0.6557107641741989</v>
+      </c>
+      <c r="AJ4">
+        <v>0.7955555555555555</v>
+      </c>
+      <c r="AK4">
+        <v>0.6308370044052863</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
